--- a/Semtitulo1.xlsx
+++ b/Semtitulo1.xlsx
@@ -20,12 +20,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t xml:space="preserve">teste</t>
   </si>
   <si>
     <t xml:space="preserve">tete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdfsdfs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fsdfsdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fsdfsd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfsfs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfsdfsdfs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfsdfsdf</t>
   </si>
 </sst>
 </file>
@@ -40,6 +58,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -99,8 +118,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -124,41 +147,71 @@
   <dimension ref="B4:K22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="K6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K12" s="0" t="s">
+      <c r="B12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K22" s="0" t="s">
+      <c r="K22" s="1" t="s">
         <v>0</v>
       </c>
     </row>
